--- a/case number.xlsx
+++ b/case number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Nutstore\1\Nutstore\Workspace\0. Code_students\10. Zekai Song\Quasi-periodic-Kolmogorov-Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBBD09B-DDE9-490D-93EB-B69F46A77DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8ECAD-CF94-4470-BD42-E315DD7D2076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1113" yWindow="1480" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>sqrt{0.1}</t>
+  </si>
+  <si>
+    <t>Quasi-periodic case, double domain and resolution</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -460,6 +463,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>10549469</v>
+      </c>
       <c r="B3">
         <v>0.5</v>
       </c>
@@ -489,6 +495,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>10549470</v>
+      </c>
       <c r="B4">
         <v>0.25</v>
       </c>
@@ -518,6 +527,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>10549471</v>
+      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -547,6 +559,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>10549473</v>
+      </c>
       <c r="B6">
         <v>0.25</v>
       </c>
@@ -616,6 +631,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10549475</v>
+      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -648,6 +666,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>10549477</v>
+      </c>
       <c r="B12">
         <v>0</v>
       </c>
@@ -680,6 +701,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>10549480</v>
+      </c>
       <c r="B13">
         <v>0</v>
       </c>
@@ -712,6 +736,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>10549482</v>
+      </c>
       <c r="B14">
         <v>0</v>
       </c>
@@ -744,6 +771,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>10549596</v>
+      </c>
       <c r="B15">
         <v>0</v>
       </c>
@@ -776,6 +806,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>10549597</v>
+      </c>
       <c r="B16">
         <v>0</v>
       </c>
@@ -807,7 +840,10 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>10549598</v>
+      </c>
       <c r="B17">
         <v>0</v>
       </c>
@@ -837,6 +873,46 @@
       </c>
       <c r="K17">
         <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/case number.xlsx
+++ b/case number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Nutstore\1\Nutstore\Workspace\0. Code_students\10. Zekai Song\Quasi-periodic-Kolmogorov-Flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl23026\Nutstore\1\Nutstore\Workspace\0. Code_students\10. Zekai Song\Quasi-periodic-Kolmogorov-Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8ECAD-CF94-4470-BD42-E315DD7D2076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2DAC69-24BF-444C-AC42-937C5524304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1113" yWindow="1480" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -66,12 +66,6 @@
     <t>nu</t>
   </si>
   <si>
-    <t>Periodic Case, validation with Radko</t>
-  </si>
-  <si>
-    <t>Quasi-periodic case</t>
-  </si>
-  <si>
     <t>sqrt{2}</t>
   </si>
   <si>
@@ -94,16 +88,80 @@
   </si>
   <si>
     <t>Quasi-periodic case, double domain and resolution</t>
+  </si>
+  <si>
+    <t>Quasi-periodic case, up to t=700</t>
+  </si>
+  <si>
+    <t>Periodic Case, validation with Radko, up to t=700</t>
+  </si>
+  <si>
+    <t>stop_sim_time</t>
+  </si>
+  <si>
+    <t>Continue from JOB ID</t>
+  </si>
+  <si>
+    <r>
+      <t>Quasi-periodic case, up to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t=2100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, snapshots output </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sim_dt=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to save storage</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,23 +469,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3515625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10549469</v>
       </c>
@@ -494,7 +554,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10549470</v>
       </c>
@@ -526,7 +586,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10549471</v>
       </c>
@@ -558,7 +618,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10549473</v>
       </c>
@@ -590,12 +650,12 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -630,7 +690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10549475</v>
       </c>
@@ -644,7 +704,7 @@
         <v>0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -665,7 +725,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10549477</v>
       </c>
@@ -679,7 +739,7 @@
         <v>0.3</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -700,7 +760,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10549480</v>
       </c>
@@ -714,7 +774,7 @@
         <v>0.3</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -735,7 +795,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10549482</v>
       </c>
@@ -749,7 +809,7 @@
         <v>0.3</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -770,7 +830,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10549596</v>
       </c>
@@ -784,7 +844,7 @@
         <v>0.3</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -805,7 +865,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10549597</v>
       </c>
@@ -819,7 +879,7 @@
         <v>0.3</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -840,7 +900,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10549598</v>
       </c>
@@ -854,64 +914,376 @@
         <v>0.3</v>
       </c>
       <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>1024</v>
+      </c>
+      <c r="I17">
+        <v>512</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>1024</v>
-      </c>
-      <c r="I17">
-        <v>512</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>1024</v>
+      </c>
+      <c r="I21">
+        <v>512</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L21">
+        <v>2100</v>
+      </c>
+      <c r="M21">
+        <v>10549475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1024</v>
+      </c>
+      <c r="I22">
+        <v>512</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L22">
+        <v>2100</v>
+      </c>
+      <c r="M22">
+        <v>10549477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>1024</v>
+      </c>
+      <c r="I23">
+        <v>512</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L23">
+        <v>2100</v>
+      </c>
+      <c r="M23">
+        <v>10549480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0.3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1024</v>
+      </c>
+      <c r="I24">
+        <v>512</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L24">
+        <v>2100</v>
+      </c>
+      <c r="M24">
+        <v>10549482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>1024</v>
+      </c>
+      <c r="I25">
+        <v>512</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L25">
+        <v>2100</v>
+      </c>
+      <c r="M25">
+        <v>10549596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>0.3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1024</v>
+      </c>
+      <c r="I26">
+        <v>512</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L26">
+        <v>2100</v>
+      </c>
+      <c r="M26">
+        <v>10549597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>0.3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>1024</v>
+      </c>
+      <c r="I27">
+        <v>512</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L27">
+        <v>2100</v>
+      </c>
+      <c r="M27">
+        <v>10549598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D30" t="s">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E30" t="s">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F30" t="s">
         <v>5</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G30" t="s">
         <v>6</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H30" t="s">
         <v>7</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I30" t="s">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J30" t="s">
         <v>9</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K30" t="s">
         <v>12</v>
       </c>
     </row>
